--- a/src/main/resources/python/MultifacetedModeling/DataOutput/SVR/frequency.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/SVR/frequency.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="result0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -670,908 +670,908 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>0.375</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0.4166666666666667</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.4166666666666667</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.5833333333333334</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.375</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.20833333333333334</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.4166666666666667</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.4166666666666667</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0.2916666666666667</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0.20833333333333334</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0.3333333333333333</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0.375</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0.375</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0.6666666666666666</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0.2916666666666667</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>0.625</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>0.2916666666666667</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0.375</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0.3333333333333333</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0.5416666666666666</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0.20833333333333334</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0.6666666666666666</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>0.8333333333333334</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>0.4166666666666667</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>0.7083333333333334</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>0.625</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0.3333333333333333</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0.9166666666666666</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0.625</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0.5833333333333334</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>0.7083333333333334</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
         <is>
           <t>0.75</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.16666666666666666</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.9166666666666666</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.2558139534883721</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.6744186046511628</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3023255813953488</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.6976744186046512</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.5581395348837209</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.3488372093023256</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.06976744186046512</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.27906976744186046</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.06976744186046512</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3953488372093023</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.4883720930232558</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.27906976744186046</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.4418604651162791</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.4186046511627907</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.4186046511627907</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.46511627906976744</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.46511627906976744</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.5348837209302325</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.37209302325581395</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5581395348837209</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.4883720930232558</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.4186046511627907</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.4186046511627907</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.46511627906976744</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.46511627906976744</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.6744186046511628</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.6744186046511628</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.27906976744186046</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.627906976744186</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.6046511627906976</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.46511627906976744</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.46511627906976744</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.7441860465116279</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.6976744186046512</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.6976744186046512</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.6511627906976745</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.5116279069767442</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.7209302325581395</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.27906976744186046</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.3953488372093023</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.3953488372093023</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.5348837209302325</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.32558139534883723</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.4186046511627907</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.6976744186046512</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.75</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3793103448275862</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5172413793103449</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2413793103448276</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.7241379310344828</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.4827586206896552</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.4827586206896552</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3793103448275862</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.3793103448275862</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.3448275862068966</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5517241379310345</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.3448275862068966</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.41379310344827586</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3793103448275862</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5862068965517241</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.4482758620689655</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2413793103448276</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5862068965517241</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5517241379310345</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3793103448275862</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.6551724137931034</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.4482758620689655</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.27586206896551724</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.6206896551724138</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5862068965517241</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3448275862068966</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.6551724137931034</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.7586206896551724</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.4827586206896552</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.6896551724137931</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.7586206896551724</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.27586206896551724</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5517241379310345</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.6206896551724138</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5862068965517241</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.4827586206896552</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5517241379310345</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.6896551724137931</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.6896551724137931</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1724137931034483</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.4827586206896552</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.3793103448275862</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.3448275862068966</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5517241379310345</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.3103448275862069</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.8620689655172413</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/SVR/frequency.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/SVR/frequency.xlsx
@@ -670,476 +670,476 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.4166666666666667</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.4166666666666667</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.5833333333333334</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.20833333333333334</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.4166666666666667</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.4166666666666667</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.2916666666666667</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.20833333333333334</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.2916666666666667</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.625</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.2916666666666667</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.5416666666666666</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0.20833333333333334</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.8333333333333334</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0.4166666666666667</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0.7083333333333334</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0.625</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0.9166666666666666</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0.625</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.5833333333333334</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>0.7083333333333334</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0.16666666666666666</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.9166666666666666</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.2558139534883721</t>
+          <t>0.3409090909090909</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.6744186046511628</t>
+          <t>0.5227272727272727</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.3023255813953488</t>
+          <t>0.36363636363636365</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.6976744186046512</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.5581395348837209</t>
+          <t>0.5681818181818182</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.3488372093023256</t>
+          <t>0.4318181818181818</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.06976744186046512</t>
+          <t>0.29545454545454547</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.27906976744186046</t>
+          <t>0.4318181818181818</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.06976744186046512</t>
+          <t>0.36363636363636365</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.3953488372093023</t>
+          <t>0.45454545454545453</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.4883720930232558</t>
+          <t>0.3181818181818182</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.27906976744186046</t>
+          <t>0.29545454545454547</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.4418604651162791</t>
+          <t>0.29545454545454547</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.4186046511627907</t>
+          <t>0.5227272727272727</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.4186046511627907</t>
+          <t>0.4772727272727273</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.46511627906976744</t>
+          <t>0.3181818181818182</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.46511627906976744</t>
+          <t>0.38636363636363635</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.5348837209302325</t>
+          <t>0.5909090909090909</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.37209302325581395</t>
+          <t>0.29545454545454547</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.5581395348837209</t>
+          <t>0.6136363636363636</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.4883720930232558</t>
+          <t>0.36363636363636365</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.4186046511627907</t>
+          <t>0.3409090909090909</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0.4186046511627907</t>
+          <t>0.45454545454545453</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.46511627906976744</t>
+          <t>0.5454545454545454</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0.46511627906976744</t>
+          <t>0.2727272727272727</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0.6744186046511628</t>
+          <t>0.7045454545454546</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.6744186046511628</t>
+          <t>0.8409090909090909</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0.27906976744186046</t>
+          <t>0.4772727272727273</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0.627906976744186</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.6046511627906976</t>
+          <t>0.6590909090909091</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0.46511627906976744</t>
+          <t>0.29545454545454547</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0.46511627906976744</t>
+          <t>0.7045454545454546</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0.7441860465116279</t>
+          <t>0.6136363636363636</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.6976744186046512</t>
+          <t>0.6136363636363636</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.6976744186046512</t>
+          <t>0.38636363636363635</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.6511627906976745</t>
+          <t>0.7045454545454546</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.5116279069767442</t>
+          <t>0.5681818181818182</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0.7209302325581395</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.27906976744186046</t>
+          <t>0.1590909090909091</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.3953488372093023</t>
+          <t>0.4090909090909091</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.3953488372093023</t>
+          <t>0.3181818181818182</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.5348837209302325</t>
+          <t>0.29545454545454547</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.32558139534883723</t>
+          <t>0.4318181818181818</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.4186046511627907</t>
+          <t>0.3409090909090909</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.6976744186046512</t>
+          <t>0.9318181818181818</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1149,429 +1149,429 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.7</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.3793103448275862</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.5172413793103449</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.2413793103448276</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.7241379310344828</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.4827586206896552</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.4827586206896552</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3793103448275862</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.3793103448275862</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.3448275862068966</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.5517241379310345</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.3448275862068966</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.41379310344827586</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.3793103448275862</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.5862068965517241</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.4482758620689655</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.2413793103448276</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.5862068965517241</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.5517241379310345</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.3793103448275862</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.6551724137931034</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.4482758620689655</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.27586206896551724</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>0.6206896551724138</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>0.5862068965517241</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>0.3448275862068966</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>0.6551724137931034</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>0.7586206896551724</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>0.4827586206896552</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>0.6896551724137931</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>0.7586206896551724</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>0.27586206896551724</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>0.5517241379310345</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>0.6206896551724138</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>0.5862068965517241</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0.4827586206896552</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>0.5517241379310345</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>0.6896551724137931</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>0.6896551724137931</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>0.1724137931034483</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>0.4827586206896552</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>0.3793103448275862</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>0.3448275862068966</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>0.5517241379310345</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>0.3103448275862069</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>0.8620689655172413</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/SVR/frequency.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/SVR/frequency.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="result0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -670,908 +670,908 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>0.3380281690140845</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0.6619718309859155</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.352112676056338</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.6619718309859155</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.04225352112676056</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.04225352112676056</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2112676056338028</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.014084507042253521</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.09859154929577464</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0.30985915492957744</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.6338028169014085</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.36619718309859156</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.014084507042253521</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.29577464788732394</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5070422535211268</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.352112676056338</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5070422535211268</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.4507042253521127</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.39436619718309857</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.4788732394366197</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.36619718309859156</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.352112676056338</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.4788732394366197</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.39436619718309857</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.49295774647887325</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.647887323943662</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.43661971830985913</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5774647887323944</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.7464788732394366</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5774647887323944</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.9859154929577465</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.4788732394366197</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5774647887323944</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5211267605633803</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.323943661971831</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.38028169014084506</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.43661971830985913</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.323943661971831</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.04225352112676056</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.22535211267605634</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.19718309859154928</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.014084507042253521</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.29577464788732394</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.43661971830985913</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.3409090909090909</t>
+          <t>0.34285714285714286</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.5227272727272727</t>
+          <t>0.34285714285714286</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.36363636363636365</t>
+          <t>0.37142857142857144</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.5714285714285714</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.5681818181818182</t>
+          <t>0.22857142857142856</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.4318181818181818</t>
+          <t>0.17142857142857143</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.29545454545454547</t>
+          <t>0.5142857142857142</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.4318181818181818</t>
+          <t>0.08571428571428572</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.36363636363636365</t>
+          <t>0.37142857142857144</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.45454545454545453</t>
+          <t>0.6857142857142857</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.3181818181818182</t>
+          <t>0.08571428571428572</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.29545454545454547</t>
+          <t>0.7142857142857143</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.29545454545454547</t>
+          <t>0.3142857142857143</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.5227272727272727</t>
+          <t>0.3142857142857143</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.4772727272727273</t>
+          <t>0.4857142857142857</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.3181818181818182</t>
+          <t>0.4857142857142857</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.38636363636363635</t>
+          <t>0.34285714285714286</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.5909090909090909</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.29545454545454547</t>
+          <t>0.2571428571428571</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.6136363636363636</t>
+          <t>0.5142857142857142</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.36363636363636365</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.3409090909090909</t>
+          <t>0.45714285714285713</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0.45454545454545453</t>
+          <t>0.42857142857142855</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.5454545454545454</t>
+          <t>0.37142857142857144</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0.2727272727272727</t>
+          <t>0.34285714285714286</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0.7045454545454546</t>
+          <t>0.5714285714285714</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.8409090909090909</t>
+          <t>0.8285714285714286</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0.4772727272727273</t>
+          <t>0.42857142857142855</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.7142857142857143</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.6590909090909091</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0.29545454545454547</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0.7045454545454546</t>
+          <t>0.9428571428571428</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0.6136363636363636</t>
+          <t>0.5428571428571428</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.6136363636363636</t>
+          <t>0.5142857142857142</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.38636363636363635</t>
+          <t>0.42857142857142855</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.7045454545454546</t>
+          <t>0.37142857142857144</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.5681818181818182</t>
+          <t>0.14285714285714285</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.37142857142857144</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.1590909090909091</t>
+          <t>0.34285714285714286</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.4090909090909091</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.3181818181818182</t>
+          <t>0.22857142857142856</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.29545454545454547</t>
+          <t>0.2571428571428571</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.4318181818181818</t>
+          <t>0.14285714285714285</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.3409090909090909</t>
+          <t>0.17142857142857143</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.9318181818181818</t>
+          <t>0.5428571428571428</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>0.5166666666666667</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.31666666666666665</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>0.6</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.7</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.016666666666666666</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0.03333333333333333</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0.016666666666666666</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0.3333333333333333</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0.21666666666666667</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0.38333333333333336</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0.31666666666666665</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>0.48333333333333334</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.31666666666666665</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.43333333333333335</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.4166666666666667</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.6166666666666667</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.5666666666666667</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.6333333333333333</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.4166666666666667</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.38333333333333336</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.43333333333333335</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.2833333333333333</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.11666666666666667</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.06666666666666667</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.26666666666666666</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.016666666666666666</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.13333333333333333</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.35</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.7352941176470589</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>0.4411764705882353</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.7352941176470589</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.029411764705882353</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>0.20588235294117646</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>0.14705882352941177</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0.5294117647058824</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0.029411764705882353</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0.7058823529411765</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0.47058823529411764</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0.3235294117647059</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.4411764705882353</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0.38235294117647056</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.6470588235294118</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0.4117647058823529</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>0.47058823529411764</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>0.5294117647058824</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0.4117647058823529</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0.4117647058823529</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0.3235294117647059</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>0.7352941176470589</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>0.6176470588235294</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>0.6764705882352942</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>0.6764705882352942</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>0.4411764705882353</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0.4117647058823529</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0.5882352941176471</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0.17647058823529413</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>0.2647058823529412</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>0.17647058823529413</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>0.35294117647058826</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>0.2647058823529412</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0.4117647058823529</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0.20588235294117646</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.17647058823529413</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.38235294117647056</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/SVR/frequency.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/SVR/frequency.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="result0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -670,908 +670,908 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.4166666666666667</t>
+          <t>0.25925925925925924</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.4166666666666667</t>
+          <t>0.18518518518518517</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.4074074074074074</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.5833333333333334</t>
+          <t>0.2962962962962963</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>0.4444444444444444</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.20833333333333334</t>
+          <t>0.2962962962962963</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.4166666666666667</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.4166666666666667</t>
+          <t>0.14814814814814814</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.5925925925925926</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.2916666666666667</t>
+          <t>0.2962962962962963</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.20833333333333334</t>
+          <t>0.48148148148148145</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>0.2222222222222222</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>0.3333333333333333</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.18518518518518517</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>0.2962962962962963</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>0.37037037037037035</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
+          <t>0.3333333333333333</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0.4444444444444444</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
           <t>0.6666666666666666</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0.2916666666666667</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0.625</t>
-        </is>
-      </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.2916666666666667</t>
+          <t>0.5555555555555556</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>0.4444444444444444</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
+          <t>0.2962962962962963</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0.5185185185185185</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0.48148148148148145</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0.6296296296296297</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>0.6666666666666666</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>0.5185185185185185</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>0.7037037037037037</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>0.5925925925925926</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0.5925925925925926</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0.5555555555555556</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0.4074074074074074</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0.5925925925925926</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0.2962962962962963</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>0.7407407407407407</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>0.7037037037037037</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>0.7037037037037037</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>0.25925925925925924</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>0.4074074074074074</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
           <t>0.3333333333333333</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0.5416666666666666</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0.20833333333333334</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0.6666666666666666</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>0.8333333333333334</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>0.4166666666666667</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>0.7083333333333334</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>0.625</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>0.2962962962962963</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>0.25925925925925924</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
         <is>
           <t>0.3333333333333333</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0.9166666666666666</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0.625</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0.5833333333333334</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>0.7083333333333334</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>0.16666666666666666</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>0.375</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>0.375</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>0.375</t>
-        </is>
-      </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.9166666666666666</t>
+          <t>0.07407407407407407</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.2558139534883721</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.6744186046511628</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.3023255813953488</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.6976744186046512</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.5581395348837209</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.3488372093023256</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.06976744186046512</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.27906976744186046</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.06976744186046512</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.3953488372093023</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.4883720930232558</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.27906976744186046</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.4418604651162791</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.4186046511627907</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.4186046511627907</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.46511627906976744</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.46511627906976744</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.5348837209302325</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.37209302325581395</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.5581395348837209</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.4883720930232558</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.4186046511627907</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0.4186046511627907</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.46511627906976744</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0.46511627906976744</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0.6744186046511628</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.6744186046511628</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0.27906976744186046</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0.627906976744186</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.6046511627906976</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0.46511627906976744</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0.46511627906976744</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0.7441860465116279</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.6976744186046512</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.6976744186046512</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.6511627906976745</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.5116279069767442</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0.7209302325581395</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.27906976744186046</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.3953488372093023</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.3953488372093023</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.5348837209302325</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.32558139534883723</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.4186046511627907</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.6976744186046512</t>
+          <t>0.44</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.3939393939393939</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.24242424242424243</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2727272727272727</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.3939393939393939</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.2727272727272727</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.36363636363636365</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.45454545454545453</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.30303030303030304</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.6060606060606061</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.2727272727272727</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3939393939393939</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.24242424242424243</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.42424242424242425</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.36363636363636365</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.45454545454545453</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.5151515151515151</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.6060606060606061</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.696969696969697</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.6363636363636364</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.5757575757575758</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5757575757575758</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.45454545454545453</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.36363636363636365</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.696969696969697</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.6060606060606061</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.6363636363636364</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.5757575757575758</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.6060606060606061</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.42424242424242425</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.6060606060606061</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.6666666666666666</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.6060606060606061</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.36363636363636365</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.8181818181818182</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.7575757575757576</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.696969696969697</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.24242424242424243</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.48484848484848486</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2727272727272727</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.36363636363636365</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.42424242424242425</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.42424242424242425</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.2727272727272727</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.3793103448275862</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.5172413793103449</t>
+          <t>0.13333333333333333</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.2413793103448276</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.7241379310344828</t>
+          <t>0.5333333333333333</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.4827586206896552</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.4827586206896552</t>
+          <t>0.5333333333333333</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3793103448275862</t>
+          <t>0.13333333333333333</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.3793103448275862</t>
+          <t>0.13333333333333333</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.3448275862068966</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.5517241379310345</t>
+          <t>0.4666666666666667</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.3448275862068966</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.41379310344827586</t>
+          <t>0.26666666666666666</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.3793103448275862</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.5862068965517241</t>
+          <t>0.4666666666666667</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.4482758620689655</t>
+          <t>0.26666666666666666</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.2413793103448276</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.5862068965517241</t>
+          <t>0.4666666666666667</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.5517241379310345</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.3793103448275862</t>
+          <t>0.5333333333333333</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.6551724137931034</t>
+          <t>0.4666666666666667</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.4482758620689655</t>
+          <t>0.7333333333333333</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.27586206896551724</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>0.6206896551724138</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>0.5862068965517241</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>0.3448275862068966</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>0.6551724137931034</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>0.7586206896551724</t>
+          <t>0.8666666666666667</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>0.4827586206896552</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>0.6896551724137931</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>0.7586206896551724</t>
+          <t>0.5333333333333333</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>0.27586206896551724</t>
+          <t>0.7333333333333333</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>0.5517241379310345</t>
+          <t>0.6666666666666666</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>0.6206896551724138</t>
+          <t>0.26666666666666666</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>0.5862068965517241</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0.4827586206896552</t>
+          <t>0.26666666666666666</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>0.5517241379310345</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>0.6896551724137931</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>0.6896551724137931</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>0.1724137931034483</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>0.4827586206896552</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>0.3793103448275862</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>0.3448275862068966</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>0.5517241379310345</t>
+          <t>0.26666666666666666</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>0.3103448275862069</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>0.8620689655172413</t>
+          <t>0.13333333333333333</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/SVR/frequency.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/SVR/frequency.xlsx
@@ -670,908 +670,908 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.6206896551724138</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.25925925925925924</t>
+          <t>0.5517241379310345</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.18518518518518517</t>
+          <t>0.3103448275862069</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.4074074074074074</t>
+          <t>0.5862068965517241</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.2962962962962963</t>
+          <t>0.13793103448275862</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.4444444444444444</t>
+          <t>0.3103448275862069</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2962962962962963</t>
+          <t>0.5172413793103449</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.3448275862068966</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.14814814814814814</t>
+          <t>0.6551724137931034</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.5925925925925926</t>
+          <t>0.3793103448275862</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.2962962962962963</t>
+          <t>0.3793103448275862</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.48148148148148145</t>
+          <t>0.5862068965517241</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.2222222222222222</t>
+          <t>0.3793103448275862</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.41379310344827586</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.18518518518518517</t>
+          <t>0.41379310344827586</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.2962962962962963</t>
+          <t>0.3448275862068966</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.37037037037037035</t>
+          <t>0.20689655172413793</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.41379310344827586</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.4444444444444444</t>
+          <t>0.3448275862068966</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.6551724137931034</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.5555555555555556</t>
+          <t>0.3448275862068966</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.4444444444444444</t>
+          <t>0.2413793103448276</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0.2962962962962963</t>
+          <t>0.4482758620689655</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.5185185185185185</t>
+          <t>0.6896551724137931</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0.48148148148148145</t>
+          <t>0.4827586206896552</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0.6296296296296297</t>
+          <t>0.8620689655172413</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.41379310344827586</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0.5185185185185185</t>
+          <t>0.3793103448275862</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0.7037037037037037</t>
+          <t>0.27586206896551724</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0.5925925925925926</t>
+          <t>0.3793103448275862</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.5925925925925926</t>
+          <t>0.41379310344827586</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0.5555555555555556</t>
+          <t>0.06896551724137931</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0.4074074074074074</t>
+          <t>0.8620689655172413</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.5925925925925926</t>
+          <t>0.9310344827586207</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.2962962962962963</t>
+          <t>0.10344827586206896</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>0.7407407407407407</t>
+          <t>0.5862068965517241</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>0.7037037037037037</t>
+          <t>0.6206896551724138</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>0.7037037037037037</t>
+          <t>0.6896551724137931</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0.25925925925925924</t>
+          <t>0.41379310344827586</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>0.4074074074074074</t>
+          <t>0.41379310344827586</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.3793103448275862</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.2962962962962963</t>
+          <t>0.2413793103448276</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>0.25925925925925924</t>
+          <t>0.3103448275862069</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.2413793103448276</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.07407407407407407</t>
+          <t>0.6206896551724138</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.53125</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.4375</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.53125</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.34375</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.46875</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.40625</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.53125</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.28125</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.40625</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.4375</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.59375</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.40625</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.4375</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.40625</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.4375</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.6875</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.84375</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.4375</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.1875</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.4375</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.59375</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.09375</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.6875</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.875</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.15625</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.78125</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.625</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.625</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.34375</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.46875</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.34375</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.4375</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.5625</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.3939393939393939</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.24242424242424243</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.2727272727272727</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.3939393939393939</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.2727272727272727</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.36363636363636365</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.45454545454545453</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.30303030303030304</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.6060606060606061</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.2727272727272727</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.3939393939393939</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.24242424242424243</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.42424242424242425</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.36363636363636365</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.45454545454545453</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.5151515151515151</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.6060606060606061</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.696969696969697</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.6363636363636364</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.5757575757575758</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.5757575757575758</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.45454545454545453</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.36363636363636365</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.696969696969697</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.6060606060606061</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.6363636363636364</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.5757575757575758</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.6060606060606061</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0.42424242424242425</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0.6060606060606061</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.6060606060606061</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.36363636363636365</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.8181818181818182</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>0.7575757575757576</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>0.696969696969697</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>0.24242424242424243</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>0.48484848484848486</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>0.2727272727272727</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>0.36363636363636365</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>0.42424242424242425</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>0.42424242424242425</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>0.2727272727272727</t>
+          <t>0.68</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.13333333333333333</t>
+          <t>0.7142857142857143</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.5714285714285714</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.5333333333333333</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.5333333333333333</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.13333333333333333</t>
+          <t>0.35714285714285715</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.13333333333333333</t>
+          <t>0.21428571428571427</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>0.5714285714285714</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0.7142857142857143</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0.5714285714285714</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0.42857142857142855</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0.5714285714285714</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.2857142857142857</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0.35714285714285715</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>0.6428571428571429</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>0.42857142857142855</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>0.21428571428571427</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0.14285714285714285</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0.7857142857142857</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0.35714285714285715</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>0.14285714285714285</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>0.07142857142857142</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>0.21428571428571427</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>0.35714285714285715</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>0.21428571428571427</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>0.4666666666666667</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>0.26666666666666666</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0.4666666666666667</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0.26666666666666666</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0.4666666666666667</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0.5333333333333333</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>0.4666666666666667</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>0.7333333333333333</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0.8666666666666667</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>0.5333333333333333</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>0.7333333333333333</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0.6666666666666666</t>
-        </is>
-      </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>0.26666666666666666</t>
+          <t>0.6428571428571429</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.9285714285714286</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0.26666666666666666</t>
+          <t>0.14285714285714285</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.5714285714285714</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.14285714285714285</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.42857142857142855</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2857142857142857</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.5714285714285714</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.2857142857142857</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>0.26666666666666666</t>
+          <t>0.6428571428571429</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.35714285714285715</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>0.13333333333333333</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
